--- a/REGULAR/ONT/BAYHON, VIOLETA.xlsx
+++ b/REGULAR/ONT/BAYHON, VIOLETA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB886E-A257-4A30-A274-68BCD22D4DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="349">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1078,12 +1077,15 @@
   </si>
   <si>
     <t>UT(0-1-28)</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1787,7 +1789,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1804,25 +1806,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K630" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K630" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2129,34 +2131,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K630"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="3240" topLeftCell="A572"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="3240" topLeftCell="A572" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B580" sqref="B580"/>
+      <selection pane="bottomLeft" activeCell="C584" sqref="C584:C587"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2177,7 +2179,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2197,7 +2199,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2219,7 +2221,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2227,7 +2229,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2240,7 +2242,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -2257,7 +2259,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2301,7 +2303,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>120.15500000000003</v>
+        <v>123.90500000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2311,12 +2313,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.70799999999997</v>
+        <v>67.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>87</v>
       </c>
@@ -2331,7 +2333,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35583</v>
       </c>
@@ -2351,7 +2353,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>35612</v>
       </c>
@@ -2371,7 +2373,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>35643</v>
@@ -2392,7 +2394,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>35674</v>
@@ -2413,7 +2415,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A17" si="0">EDATE(A14,1)</f>
         <v>35704</v>
@@ -2434,7 +2436,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -2455,7 +2457,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -2476,7 +2478,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>88</v>
       </c>
@@ -2494,7 +2496,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f>EDATE(A17,1)</f>
         <v>35796</v>
@@ -2515,7 +2517,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>EDATE(A19,1)</f>
         <v>35827</v>
@@ -2536,7 +2538,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" ref="A21:A31" si="1">EDATE(A20,1)</f>
         <v>35855</v>
@@ -2563,7 +2565,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -2584,7 +2586,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -2605,7 +2607,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -2630,7 +2632,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -2651,7 +2653,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -2672,7 +2674,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -2693,7 +2695,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -2720,7 +2722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>93</v>
@@ -2737,7 +2739,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f>EDATE(A28,1)</f>
         <v>36100</v>
@@ -2764,7 +2766,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -2791,7 +2793,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>94</v>
@@ -2808,7 +2810,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>92</v>
       </c>
@@ -2826,7 +2828,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f>EDATE(A31,1)</f>
         <v>36161</v>
@@ -2853,7 +2855,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>96</v>
@@ -2870,7 +2872,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f>EDATE(A34,1)</f>
         <v>36192</v>
@@ -2895,7 +2897,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" ref="A37:A59" si="2">EDATE(A36,1)</f>
         <v>36220</v>
@@ -2922,7 +2924,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>48</v>
@@ -2941,7 +2943,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>48</v>
@@ -2960,7 +2962,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>97</v>
@@ -2977,7 +2979,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="52"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f>EDATE(A37,1)</f>
         <v>36251</v>
@@ -3004,7 +3006,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>100</v>
@@ -3021,7 +3023,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f>EDATE(A41,1)</f>
         <v>36281</v>
@@ -3046,7 +3048,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>105</v>
@@ -3063,7 +3065,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f>EDATE(A43,1)</f>
         <v>36312</v>
@@ -3090,7 +3092,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>46</v>
@@ -3107,7 +3109,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>48</v>
@@ -3126,7 +3128,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>102</v>
@@ -3143,7 +3145,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f>EDATE(A45,1)</f>
         <v>36342</v>
@@ -3170,7 +3172,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>108</v>
@@ -3187,7 +3189,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f>EDATE(A49,1)</f>
         <v>36373</v>
@@ -3214,7 +3216,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -3233,7 +3235,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>109</v>
@@ -3250,7 +3252,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f>EDATE(A51,1)</f>
         <v>36404</v>
@@ -3277,7 +3279,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>110</v>
@@ -3294,7 +3296,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f>EDATE(A54,1)</f>
         <v>36434</v>
@@ -3321,7 +3323,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>111</v>
@@ -3338,7 +3340,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f>EDATE(A56,1)</f>
         <v>36465</v>
@@ -3363,7 +3365,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -3390,7 +3392,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>106</v>
@@ -3412,7 +3414,7 @@
         <v>45284</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>89</v>
@@ -3432,7 +3434,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>113</v>
@@ -3452,7 +3454,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>114</v>
       </c>
@@ -3470,7 +3472,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f>EDATE(A59,1)</f>
         <v>36526</v>
@@ -3495,7 +3497,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f>EDATE(A64,1)</f>
         <v>36557</v>
@@ -3522,7 +3524,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>116</v>
@@ -3539,7 +3541,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f>EDATE(A65,1)</f>
         <v>36586</v>
@@ -3566,7 +3568,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>117</v>
@@ -3583,7 +3585,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>45</v>
@@ -3600,7 +3602,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f>EDATE(A67,1)</f>
         <v>36617</v>
@@ -3621,7 +3623,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" ref="A71:A76" si="3">EDATE(A70,1)</f>
         <v>36647</v>
@@ -3648,7 +3650,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>115</v>
@@ -3665,7 +3667,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f>EDATE(A71,1)</f>
         <v>36678</v>
@@ -3686,7 +3688,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -3713,7 +3715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -3734,7 +3736,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -3761,7 +3763,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>48</v>
@@ -3780,7 +3782,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>101</v>
@@ -3797,7 +3799,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f>EDATE(A76,1)</f>
         <v>36800</v>
@@ -3824,7 +3826,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>48</v>
@@ -3843,7 +3845,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>117</v>
@@ -3860,7 +3862,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f>EDATE(A79,1)</f>
         <v>36831</v>
@@ -3887,7 +3889,7 @@
         <v>36839</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>48</v>
@@ -3906,7 +3908,7 @@
         <v>36849</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f>EDATE(A82,1)</f>
         <v>36861</v>
@@ -3931,7 +3933,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>121</v>
       </c>
@@ -3949,7 +3951,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f>EDATE(A84,1)</f>
         <v>36892</v>
@@ -3976,7 +3978,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>122</v>
@@ -3993,7 +3995,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="52"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f>EDATE(A86,1)</f>
         <v>36923</v>
@@ -4020,7 +4022,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f t="shared" ref="A89:A98" si="4">EDATE(A88,1)</f>
         <v>36951</v>
@@ -4047,7 +4049,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="4"/>
         <v>36982</v>
@@ -4074,7 +4076,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>48</v>
@@ -4093,7 +4095,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>37012</v>
@@ -4120,7 +4122,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -4147,7 +4149,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -4174,7 +4176,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>124</v>
@@ -4191,7 +4193,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f>EDATE(A94,1)</f>
         <v>37104</v>
@@ -4212,7 +4214,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="4"/>
         <v>37135</v>
@@ -4239,7 +4241,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -4266,7 +4268,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>48</v>
@@ -4285,7 +4287,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>48</v>
@@ -4304,7 +4306,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>129</v>
@@ -4321,7 +4323,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="52"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f>EDATE(A98,1)</f>
         <v>37196</v>
@@ -4348,7 +4350,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>48</v>
@@ -4367,7 +4369,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>130</v>
@@ -4386,7 +4388,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f>EDATE(A102,1)</f>
         <v>37226</v>
@@ -4413,7 +4415,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>89</v>
@@ -4433,7 +4435,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>132</v>
       </c>
@@ -4451,7 +4453,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f>EDATE(A105,1)</f>
         <v>37257</v>
@@ -4478,7 +4480,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>105</v>
@@ -4495,7 +4497,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>48</v>
@@ -4514,7 +4516,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>46</v>
@@ -4531,7 +4533,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f>EDATE(A108,1)</f>
         <v>37288</v>
@@ -4556,7 +4558,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" ref="A113:A128" si="5">EDATE(A112,1)</f>
         <v>37316</v>
@@ -4583,7 +4585,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>135</v>
@@ -4600,7 +4602,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f>EDATE(A113,1)</f>
         <v>37347</v>
@@ -4627,7 +4629,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>46</v>
@@ -4644,7 +4646,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>127</v>
@@ -4663,7 +4665,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>48</v>
@@ -4682,7 +4684,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f>EDATE(A115,1)</f>
         <v>37377</v>
@@ -4709,7 +4711,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -4736,7 +4738,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>48</v>
@@ -4755,7 +4757,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f>EDATE(A120,1)</f>
         <v>37438</v>
@@ -4782,7 +4784,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>51</v>
@@ -4801,7 +4803,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>140</v>
@@ -4818,7 +4820,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f>EDATE(A122,1)</f>
         <v>37469</v>
@@ -4843,7 +4845,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f t="shared" si="5"/>
         <v>37500</v>
@@ -4870,7 +4872,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f t="shared" si="5"/>
         <v>37530</v>
@@ -4895,7 +4897,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -4920,7 +4922,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f>EDATE(A128,1)</f>
         <v>37591</v>
@@ -4945,7 +4947,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>144</v>
       </c>
@@ -4963,7 +4965,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f>EDATE(A129,1)</f>
         <v>37622</v>
@@ -4990,7 +4992,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>48</v>
@@ -5007,7 +5009,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -5026,7 +5028,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f>EDATE(A131,1)</f>
         <v>37653</v>
@@ -5053,7 +5055,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>146</v>
@@ -5070,7 +5072,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f>EDATE(A134,1)</f>
         <v>37681</v>
@@ -5091,7 +5093,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f t="shared" ref="A137:A145" si="6">EDATE(A136,1)</f>
         <v>37712</v>
@@ -5112,7 +5114,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -5139,7 +5141,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f t="shared" si="6"/>
         <v>37773</v>
@@ -5166,7 +5168,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>48</v>
@@ -5185,7 +5187,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f>EDATE(A139,1)</f>
         <v>37803</v>
@@ -5206,7 +5208,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -5227,7 +5229,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -5252,7 +5254,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -5277,7 +5279,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -5302,7 +5304,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <f>EDATE(A145,1)</f>
         <v>37956</v>
@@ -5329,7 +5331,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>78</v>
@@ -5346,7 +5348,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
         <v>150</v>
       </c>
@@ -5364,7 +5366,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <f>EDATE(A146,1)</f>
         <v>37987</v>
@@ -5391,7 +5393,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>130</v>
@@ -5410,7 +5412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <f>EDATE(A149,1)</f>
         <v>38018</v>
@@ -5437,7 +5439,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f t="shared" ref="A152:A162" si="7">EDATE(A151,1)</f>
         <v>38047</v>
@@ -5464,7 +5466,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -5489,7 +5491,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>51</v>
@@ -5508,7 +5510,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>38108</v>
@@ -5535,7 +5537,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -5562,7 +5564,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -5583,7 +5585,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -5604,7 +5606,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -5625,7 +5627,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <f t="shared" si="7"/>
         <v>38261</v>
@@ -5646,7 +5648,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f t="shared" si="7"/>
         <v>38292</v>
@@ -5671,7 +5673,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f t="shared" si="7"/>
         <v>38322</v>
@@ -5696,7 +5698,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="48" t="s">
         <v>155</v>
       </c>
@@ -5714,7 +5716,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>38353</v>
@@ -5739,7 +5741,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>46</v>
@@ -5756,7 +5758,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f>EDATE(A164,1)</f>
         <v>38384</v>
@@ -5781,7 +5783,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <f t="shared" ref="A167:A179" si="8">EDATE(A166,1)</f>
         <v>38412</v>
@@ -5806,7 +5808,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f t="shared" si="8"/>
         <v>38443</v>
@@ -5831,7 +5833,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>46</v>
@@ -5848,7 +5850,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>162</v>
@@ -5865,7 +5867,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f>EDATE(A168,1)</f>
         <v>38473</v>
@@ -5886,7 +5888,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -5913,7 +5915,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>163</v>
@@ -5930,7 +5932,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="52"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f>EDATE(A172,1)</f>
         <v>38534</v>
@@ -5955,7 +5957,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f t="shared" si="8"/>
         <v>38565</v>
@@ -5980,7 +5982,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -6001,7 +6003,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f t="shared" si="8"/>
         <v>38626</v>
@@ -6022,7 +6024,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -6043,7 +6045,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -6068,7 +6070,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>166</v>
       </c>
@@ -6086,7 +6088,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <f>EDATE(A179,1)</f>
         <v>38718</v>
@@ -6113,7 +6115,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>48</v>
@@ -6132,7 +6134,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>167</v>
@@ -6149,7 +6151,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <f>EDATE(A181,1)</f>
         <v>38749</v>
@@ -6174,7 +6176,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <f t="shared" ref="A185:A199" si="9">EDATE(A184,1)</f>
         <v>38777</v>
@@ -6199,7 +6201,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>46</v>
@@ -6216,7 +6218,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>48</v>
@@ -6235,7 +6237,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f>EDATE(A185,1)</f>
         <v>38808</v>
@@ -6262,7 +6264,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>89</v>
@@ -6281,7 +6283,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <f>EDATE(A188,1)</f>
         <v>38838</v>
@@ -6306,7 +6308,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -6331,7 +6333,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -6356,7 +6358,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <f t="shared" si="9"/>
         <v>38930</v>
@@ -6383,7 +6385,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>175</v>
@@ -6400,7 +6402,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <f>EDATE(A193,1)</f>
         <v>38961</v>
@@ -6425,7 +6427,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -6452,7 +6454,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>177</v>
@@ -6469,7 +6471,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <f>EDATE(A196,1)</f>
         <v>39022</v>
@@ -6494,7 +6496,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f t="shared" si="9"/>
         <v>39052</v>
@@ -6521,7 +6523,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>179</v>
@@ -6541,7 +6543,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="48" t="s">
         <v>180</v>
       </c>
@@ -6559,7 +6561,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f>EDATE(A199,1)</f>
         <v>39083</v>
@@ -6586,7 +6588,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>163</v>
@@ -6605,7 +6607,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>181</v>
@@ -6622,7 +6624,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>39114</v>
@@ -6647,7 +6649,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <f t="shared" ref="A206:A224" si="10">EDATE(A205,1)</f>
         <v>39142</v>
@@ -6674,7 +6676,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -6691,7 +6693,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>183</v>
@@ -6708,7 +6710,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f>EDATE(A206,1)</f>
         <v>39173</v>
@@ -6735,7 +6737,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>185</v>
@@ -6752,7 +6754,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f>EDATE(A209,1)</f>
         <v>39203</v>
@@ -6775,7 +6777,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="52"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -6802,7 +6804,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>48</v>
@@ -6819,7 +6821,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <f>EDATE(A212,1)</f>
         <v>39264</v>
@@ -6846,7 +6848,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>46</v>
@@ -6863,7 +6865,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>48</v>
@@ -6882,7 +6884,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f>EDATE(A214,1)</f>
         <v>39295</v>
@@ -6909,7 +6911,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>187</v>
@@ -6926,7 +6928,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <f>EDATE(A217,1)</f>
         <v>39326</v>
@@ -6951,7 +6953,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>188</v>
@@ -6968,7 +6970,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f>EDATE(A219,1)</f>
         <v>39356</v>
@@ -6995,7 +6997,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>189</v>
@@ -7012,7 +7014,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f>EDATE(A221,1)</f>
         <v>39387</v>
@@ -7039,7 +7041,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f t="shared" si="10"/>
         <v>39417</v>
@@ -7066,7 +7068,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>192</v>
@@ -7086,7 +7088,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="48" t="s">
         <v>193</v>
       </c>
@@ -7104,7 +7106,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f>EDATE(A224,1)</f>
         <v>39448</v>
@@ -7131,7 +7133,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>46</v>
@@ -7148,7 +7150,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>48</v>
@@ -7167,7 +7169,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>194</v>
@@ -7184,7 +7186,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="52"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <f>EDATE(A227,1)</f>
         <v>39479</v>
@@ -7209,7 +7211,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f t="shared" ref="A232:A248" si="11">EDATE(A231,1)</f>
         <v>39508</v>
@@ -7234,7 +7236,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>48</v>
@@ -7253,7 +7255,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>196</v>
@@ -7270,7 +7272,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f>EDATE(A232,1)</f>
         <v>39539</v>
@@ -7297,7 +7299,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>48</v>
@@ -7316,7 +7318,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>198</v>
@@ -7333,7 +7335,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <f>EDATE(A235,1)</f>
         <v>39569</v>
@@ -7358,7 +7360,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -7385,7 +7387,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>163</v>
@@ -7404,7 +7406,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>200</v>
@@ -7421,7 +7423,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f>EDATE(A239,1)</f>
         <v>39630</v>
@@ -7446,7 +7448,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f t="shared" si="11"/>
         <v>39661</v>
@@ -7473,7 +7475,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>201</v>
@@ -7490,7 +7492,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>39692</v>
@@ -7515,7 +7517,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f t="shared" si="11"/>
         <v>39722</v>
@@ -7542,7 +7544,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -7569,7 +7571,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <f t="shared" si="11"/>
         <v>39783</v>
@@ -7590,7 +7592,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="48" t="s">
         <v>203</v>
       </c>
@@ -7608,7 +7610,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f>EDATE(A248,1)</f>
         <v>39814</v>
@@ -7635,7 +7637,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>204</v>
@@ -7652,7 +7654,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <f>EDATE(A250,1)</f>
         <v>39845</v>
@@ -7677,7 +7679,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <f t="shared" ref="A253:A280" si="12">EDATE(A252,1)</f>
         <v>39873</v>
@@ -7704,7 +7706,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>46</v>
@@ -7721,7 +7723,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>46</v>
@@ -7738,7 +7740,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>206</v>
@@ -7755,7 +7757,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f>EDATE(A253,1)</f>
         <v>39904</v>
@@ -7780,7 +7782,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -7807,7 +7809,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>46</v>
@@ -7824,7 +7826,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>51</v>
@@ -7843,7 +7845,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>48</v>
@@ -7862,7 +7864,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>156</v>
@@ -7879,7 +7881,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <f>EDATE(A258,1)</f>
         <v>39965</v>
@@ -7906,7 +7908,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>51</v>
@@ -7925,7 +7927,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>211</v>
@@ -7944,7 +7946,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>51</v>
@@ -7963,7 +7965,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>117</v>
@@ -7980,7 +7982,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f>EDATE(A263,1)</f>
         <v>39995</v>
@@ -8007,7 +8009,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>130</v>
@@ -8026,7 +8028,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>216</v>
@@ -8043,7 +8045,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <f>EDATE(A268,1)</f>
         <v>40026</v>
@@ -8070,7 +8072,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>51</v>
@@ -8089,7 +8091,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>218</v>
@@ -8106,7 +8108,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f>EDATE(A271,1)</f>
         <v>40057</v>
@@ -8133,7 +8135,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>175</v>
@@ -8150,7 +8152,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f>EDATE(A274,1)</f>
         <v>40087</v>
@@ -8177,7 +8179,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>48</v>
@@ -8196,7 +8198,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>220</v>
@@ -8213,7 +8215,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <f>EDATE(A276,1)</f>
         <v>40118</v>
@@ -8238,7 +8240,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f t="shared" si="12"/>
         <v>40148</v>
@@ -8263,7 +8265,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>223</v>
@@ -8280,7 +8282,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="48" t="s">
         <v>222</v>
       </c>
@@ -8298,7 +8300,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f>EDATE(A280,1)</f>
         <v>40179</v>
@@ -8323,7 +8325,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>165</v>
@@ -8340,7 +8342,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <f>EDATE(A283,1)</f>
         <v>40210</v>
@@ -8367,7 +8369,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>48</v>
@@ -8386,7 +8388,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>225</v>
@@ -8403,7 +8405,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="52"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f>EDATE(A285,1)</f>
         <v>40238</v>
@@ -8430,7 +8432,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>48</v>
@@ -8449,7 +8451,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>46</v>
@@ -8466,7 +8468,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>68</v>
@@ -8485,7 +8487,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>130</v>
@@ -8504,7 +8506,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>226</v>
@@ -8521,7 +8523,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f>EDATE(A288,1)</f>
         <v>40269</v>
@@ -8546,7 +8548,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>48</v>
@@ -8565,7 +8567,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>101</v>
@@ -8582,7 +8584,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f>EDATE(A294,1)</f>
         <v>40299</v>
@@ -8609,7 +8611,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>48</v>
@@ -8628,7 +8630,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>48</v>
@@ -8647,7 +8649,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>188</v>
@@ -8664,7 +8666,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f>EDATE(A297,1)</f>
         <v>40330</v>
@@ -8691,7 +8693,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>67</v>
@@ -8710,7 +8712,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>233</v>
@@ -8727,7 +8729,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A301,1)</f>
         <v>40360</v>
@@ -8754,7 +8756,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>235</v>
@@ -8771,7 +8773,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <f>EDATE(A304,1)</f>
         <v>40391</v>
@@ -8798,7 +8800,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>236</v>
@@ -8815,7 +8817,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="52"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <f>EDATE(A306,1)</f>
         <v>40422</v>
@@ -8842,7 +8844,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>237</v>
@@ -8859,7 +8861,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <f>EDATE(A308,1)</f>
         <v>40452</v>
@@ -8886,7 +8888,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>238</v>
@@ -8903,7 +8905,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f>EDATE(A310,1)</f>
         <v>40483</v>
@@ -8930,7 +8932,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>48</v>
@@ -8949,7 +8951,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>240</v>
@@ -8966,7 +8968,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <f t="shared" ref="A315" si="13">EDATE(A312,1)</f>
         <v>40513</v>
@@ -8993,7 +8995,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>68</v>
@@ -9013,7 +9015,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>242</v>
@@ -9033,7 +9035,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="48" t="s">
         <v>244</v>
       </c>
@@ -9051,7 +9053,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f>EDATE(A315,1)</f>
         <v>40544</v>
@@ -9076,7 +9078,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <f>EDATE(A319,1)</f>
         <v>40575</v>
@@ -9103,7 +9105,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>246</v>
@@ -9122,7 +9124,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>247</v>
@@ -9139,7 +9141,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <f>EDATE(A320,1)</f>
         <v>40603</v>
@@ -9164,7 +9166,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f t="shared" ref="A324:A328" si="14">EDATE(A323,1)</f>
         <v>40634</v>
@@ -9189,7 +9191,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <f t="shared" si="14"/>
         <v>40664</v>
@@ -9216,7 +9218,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>250</v>
@@ -9233,7 +9235,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <f>EDATE(A325,1)</f>
         <v>40695</v>
@@ -9258,7 +9260,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <f t="shared" si="14"/>
         <v>40725</v>
@@ -9285,7 +9287,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>127</v>
@@ -9304,7 +9306,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>255</v>
@@ -9323,7 +9325,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <f>EDATE(A328,1)</f>
         <v>40756</v>
@@ -9350,7 +9352,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>127</v>
@@ -9369,7 +9371,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>48</v>
@@ -9388,7 +9390,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <f>EDATE(A331,1)</f>
         <v>40787</v>
@@ -9415,7 +9417,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>48</v>
@@ -9434,7 +9436,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>48</v>
@@ -9451,7 +9453,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>46</v>
@@ -9468,7 +9470,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <f>EDATE(A334,1)</f>
         <v>40817</v>
@@ -9493,7 +9495,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f>EDATE(A338,1)</f>
         <v>40848</v>
@@ -9520,7 +9522,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>48</v>
@@ -9537,7 +9539,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>264</v>
@@ -9554,7 +9556,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <f>EDATE(A339,1)</f>
         <v>40878</v>
@@ -9581,7 +9583,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>48</v>
@@ -9603,7 +9605,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>67</v>
@@ -9623,7 +9625,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>48</v>
@@ -9645,7 +9647,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>51</v>
@@ -9667,7 +9669,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>127</v>
@@ -9686,7 +9688,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>269</v>
@@ -9703,7 +9705,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="48" t="s">
         <v>267</v>
       </c>
@@ -9721,7 +9723,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f>EDATE(A342,1)</f>
         <v>40909</v>
@@ -9746,7 +9748,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>48</v>
@@ -9765,7 +9767,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>48</v>
@@ -9784,7 +9786,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <f>EDATE(A350,1)</f>
         <v>40940</v>
@@ -9811,7 +9813,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>67</v>
@@ -9830,7 +9832,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>52</v>
@@ -9849,7 +9851,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
         <v>163</v>
@@ -9868,7 +9870,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -9887,7 +9889,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>53</v>
@@ -9906,7 +9908,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>50</v>
@@ -9925,7 +9927,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>80</v>
@@ -9944,7 +9946,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <f>EDATE(A353,1)</f>
         <v>40969</v>
@@ -9965,7 +9967,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <f t="shared" ref="A362:A375" si="15">EDATE(A361,1)</f>
         <v>41000</v>
@@ -9992,7 +9994,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>48</v>
@@ -10011,7 +10013,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>61</v>
@@ -10032,7 +10034,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>279</v>
@@ -10051,7 +10053,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <f>EDATE(A362,1)</f>
         <v>41030</v>
@@ -10072,7 +10074,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <f t="shared" si="15"/>
         <v>41061</v>
@@ -10101,7 +10103,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>50</v>
@@ -10120,7 +10122,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>73</v>
@@ -10139,7 +10141,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <f>EDATE(A367,1)</f>
         <v>41091</v>
@@ -10166,7 +10168,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>61</v>
@@ -10185,7 +10187,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <f>EDATE(A370,1)</f>
         <v>41122</v>
@@ -10214,7 +10216,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>286</v>
@@ -10231,7 +10233,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <f>EDATE(A372,1)</f>
         <v>41153</v>
@@ -10252,7 +10254,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -10279,7 +10281,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>48</v>
@@ -10298,7 +10300,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <f>EDATE(A375,1)</f>
         <v>41214</v>
@@ -10325,7 +10327,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>48</v>
@@ -10344,7 +10346,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A377,1)</f>
         <v>41244</v>
@@ -10371,7 +10373,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>49</v>
@@ -10393,7 +10395,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="48" t="s">
         <v>292</v>
       </c>
@@ -10411,7 +10413,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <f>EDATE(A379,1)</f>
         <v>41275</v>
@@ -10438,7 +10440,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>51</v>
@@ -10457,7 +10459,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <f>EDATE(A382,1)</f>
         <v>41306</v>
@@ -10484,7 +10486,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>47</v>
@@ -10503,7 +10505,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <f>EDATE(A384,1)</f>
         <v>41334</v>
@@ -10528,7 +10530,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>294</v>
@@ -10545,7 +10547,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <f>EDATE(A386,1)</f>
         <v>41365</v>
@@ -10572,7 +10574,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>78</v>
@@ -10591,7 +10593,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>48</v>
@@ -10610,7 +10612,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>41395</v>
@@ -10637,7 +10639,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <f t="shared" ref="A392:A404" si="16">EDATE(A391,1)</f>
         <v>41426</v>
@@ -10662,7 +10664,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <f t="shared" si="16"/>
         <v>41456</v>
@@ -10689,7 +10691,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>47</v>
@@ -10708,7 +10710,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>298</v>
@@ -10725,7 +10727,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="52"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <f>EDATE(A393,1)</f>
         <v>41487</v>
@@ -10752,7 +10754,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -10771,7 +10773,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>173</v>
@@ -10788,7 +10790,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <f>EDATE(A396,1)</f>
         <v>41518</v>
@@ -10809,7 +10811,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <f t="shared" si="16"/>
         <v>41548</v>
@@ -10836,7 +10838,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>46</v>
@@ -10853,7 +10855,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>299</v>
@@ -10870,7 +10872,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <f>EDATE(A400,1)</f>
         <v>41579</v>
@@ -10891,7 +10893,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -10912,7 +10914,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="48" t="s">
         <v>302</v>
       </c>
@@ -10930,7 +10932,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <f>EDATE(A404,1)</f>
         <v>41640</v>
@@ -10957,7 +10959,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <f>EDATE(A406,1)</f>
         <v>41671</v>
@@ -10984,7 +10986,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>46</v>
@@ -11001,7 +11003,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>48</v>
@@ -11020,7 +11022,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>46</v>
@@ -11037,7 +11039,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>48</v>
@@ -11056,7 +11058,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>303</v>
@@ -11073,7 +11075,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <f>EDATE(A407,1)</f>
         <v>41699</v>
@@ -11094,7 +11096,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <f t="shared" ref="A414:A425" si="17">EDATE(A413,1)</f>
         <v>41730</v>
@@ -11121,7 +11123,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>163</v>
@@ -11143,7 +11145,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>306</v>
@@ -11163,7 +11165,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <f>EDATE(A414,1)</f>
         <v>41760</v>
@@ -11190,7 +11192,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23"/>
       <c r="B418" s="20" t="s">
         <v>51</v>
@@ -11209,7 +11211,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>48</v>
@@ -11228,7 +11230,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <f>EDATE(A417,1)</f>
         <v>41791</v>
@@ -11255,7 +11257,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <f t="shared" si="17"/>
         <v>41821</v>
@@ -11280,7 +11282,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -11307,7 +11309,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>310</v>
@@ -11324,7 +11326,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <f>EDATE(A422,1)</f>
         <v>41883</v>
@@ -11351,7 +11353,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -11378,7 +11380,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>47</v>
@@ -11395,7 +11397,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <f>EDATE(A425,1)</f>
         <v>41944</v>
@@ -11416,7 +11418,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <f>EDATE(A427,1)</f>
         <v>41974</v>
@@ -11443,7 +11445,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>314</v>
@@ -11463,7 +11465,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="48" t="s">
         <v>315</v>
       </c>
@@ -11481,7 +11483,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <f>EDATE(A428,1)</f>
         <v>42005</v>
@@ -11506,7 +11508,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <f>EDATE(A431,1)</f>
         <v>42036</v>
@@ -11533,7 +11535,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>317</v>
@@ -11550,7 +11552,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <f>EDATE(A432,1)</f>
         <v>42064</v>
@@ -11577,7 +11579,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>270</v>
@@ -11594,7 +11596,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>158</v>
@@ -11611,7 +11613,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <f>EDATE(A434,1)</f>
         <v>42095</v>
@@ -11638,7 +11640,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23"/>
       <c r="B438" s="20" t="s">
         <v>47</v>
@@ -11657,7 +11659,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>47</v>
@@ -11676,7 +11678,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>319</v>
@@ -11693,7 +11695,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <f>EDATE(A437,1)</f>
         <v>42125</v>
@@ -11720,7 +11722,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>321</v>
@@ -11737,7 +11739,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <f>EDATE(A441,1)</f>
         <v>42156</v>
@@ -11764,7 +11766,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
         <v>97</v>
@@ -11781,7 +11783,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <f>EDATE(A443,1)</f>
         <v>42186</v>
@@ -11802,7 +11804,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <f t="shared" ref="A446:A451" si="18">EDATE(A445,1)</f>
         <v>42217</v>
@@ -11827,7 +11829,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <f t="shared" si="18"/>
         <v>42248</v>
@@ -11848,7 +11850,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23">
         <f t="shared" si="18"/>
         <v>42278</v>
@@ -11875,7 +11877,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23"/>
       <c r="B449" s="20" t="s">
         <v>322</v>
@@ -11896,7 +11898,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <f>EDATE(A448,1)</f>
         <v>42309</v>
@@ -11923,7 +11925,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <f t="shared" si="18"/>
         <v>42339</v>
@@ -11944,7 +11946,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
         <v>326</v>
       </c>
@@ -11962,7 +11964,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23">
         <f>EDATE(A451,1)</f>
         <v>42370</v>
@@ -11987,7 +11989,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <f>EDATE(A453,1)</f>
         <v>42401</v>
@@ -12014,7 +12016,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>45</v>
@@ -12031,7 +12033,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>48</v>
@@ -12050,7 +12052,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>80</v>
@@ -12069,7 +12071,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23">
         <f>EDATE(A454,1)</f>
         <v>42430</v>
@@ -12090,7 +12092,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <f t="shared" ref="A459:A466" si="19">EDATE(A458,1)</f>
         <v>42461</v>
@@ -12117,7 +12119,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>51</v>
@@ -12136,7 +12138,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23">
         <f>EDATE(A459,1)</f>
         <v>42491</v>
@@ -12157,7 +12159,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -12178,7 +12180,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -12199,7 +12201,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -12220,7 +12222,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23">
         <f t="shared" si="19"/>
         <v>42614</v>
@@ -12241,7 +12243,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -12268,7 +12270,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>48</v>
@@ -12287,7 +12289,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>48</v>
@@ -12306,7 +12308,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23"/>
       <c r="B469" s="20" t="s">
         <v>48</v>
@@ -12325,7 +12327,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <f>EDATE(A466,1)</f>
         <v>42675</v>
@@ -12352,7 +12354,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23"/>
       <c r="B471" s="20" t="s">
         <v>47</v>
@@ -12371,7 +12373,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <f>EDATE(A470,1)</f>
         <v>42705</v>
@@ -12392,7 +12394,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="48" t="s">
         <v>333</v>
       </c>
@@ -12410,7 +12412,7 @@
       <c r="J473" s="2"/>
       <c r="K473" s="55"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23">
         <f>EDATE(A472,1)</f>
         <v>42736</v>
@@ -12435,7 +12437,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23"/>
       <c r="B475" s="20" t="s">
         <v>127</v>
@@ -12454,7 +12456,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23"/>
       <c r="B476" s="20" t="s">
         <v>48</v>
@@ -12473,7 +12475,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23">
         <f>EDATE(A474,1)</f>
         <v>42767</v>
@@ -12500,7 +12502,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23">
         <f t="shared" ref="A478:A490" si="20">EDATE(A477,1)</f>
         <v>42795</v>
@@ -12527,7 +12529,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <f t="shared" si="20"/>
         <v>42826</v>
@@ -12552,7 +12554,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>48</v>
@@ -12571,7 +12573,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>48</v>
@@ -12590,7 +12592,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23"/>
       <c r="B482" s="20" t="s">
         <v>67</v>
@@ -12609,7 +12611,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>47</v>
@@ -12628,7 +12630,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <f>EDATE(A479,1)</f>
         <v>42856</v>
@@ -12649,7 +12651,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <f t="shared" si="20"/>
         <v>42887</v>
@@ -12676,7 +12678,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23">
         <f t="shared" si="20"/>
         <v>42917</v>
@@ -12697,7 +12699,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -12724,7 +12726,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23">
         <f t="shared" si="20"/>
         <v>42979</v>
@@ -12745,7 +12747,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <f t="shared" si="20"/>
         <v>43009</v>
@@ -12774,7 +12776,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <f t="shared" si="20"/>
         <v>43040</v>
@@ -12795,7 +12797,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23">
         <f>EDATE(A490,1)</f>
         <v>43070</v>
@@ -12822,7 +12824,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23"/>
       <c r="B492" s="20" t="s">
         <v>49</v>
@@ -12844,7 +12846,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="48" t="s">
         <v>44</v>
       </c>
@@ -12866,7 +12868,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43101</v>
       </c>
@@ -12890,7 +12892,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43132</v>
       </c>
@@ -12910,7 +12912,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43160</v>
       </c>
@@ -12934,7 +12936,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>47</v>
@@ -12953,7 +12955,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>48</v>
@@ -12972,7 +12974,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>48</v>
@@ -12991,7 +12993,7 @@
         <v>43186</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>49</v>
@@ -13012,7 +13014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>50</v>
@@ -13031,7 +13033,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>50</v>
@@ -13050,7 +13052,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43191</v>
       </c>
@@ -13070,7 +13072,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>43221</v>
       </c>
@@ -13096,7 +13098,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="15" t="s">
         <v>50</v>
@@ -13117,7 +13119,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43252</v>
       </c>
@@ -13143,7 +13145,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="15" t="s">
         <v>53</v>
@@ -13162,7 +13164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>43282</v>
       </c>
@@ -13188,7 +13190,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43313</v>
       </c>
@@ -13214,7 +13216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>51</v>
@@ -13233,7 +13235,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>61</v>
@@ -13252,7 +13254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43344</v>
       </c>
@@ -13272,7 +13274,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43374</v>
       </c>
@@ -13298,7 +13300,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43405</v>
       </c>
@@ -13324,7 +13326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43435</v>
       </c>
@@ -13344,7 +13346,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="48" t="s">
         <v>66</v>
       </c>
@@ -13362,7 +13364,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>43466</v>
       </c>
@@ -13382,7 +13384,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>43497</v>
       </c>
@@ -13402,7 +13404,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>43525</v>
       </c>
@@ -13422,7 +13424,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>43556</v>
       </c>
@@ -13446,7 +13448,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>48</v>
@@ -13465,7 +13467,7 @@
         <v>43599</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43586</v>
       </c>
@@ -13491,7 +13493,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>43617</v>
       </c>
@@ -13511,7 +13513,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43647</v>
       </c>
@@ -13537,7 +13539,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43678</v>
       </c>
@@ -13557,7 +13559,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>43709</v>
       </c>
@@ -13577,7 +13579,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>43739</v>
       </c>
@@ -13603,7 +13605,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>43770</v>
       </c>
@@ -13629,7 +13631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>43800</v>
       </c>
@@ -13653,7 +13655,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="48" t="s">
         <v>70</v>
       </c>
@@ -13671,7 +13673,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43831</v>
       </c>
@@ -13695,7 +13697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>67</v>
@@ -13712,7 +13714,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>43862</v>
       </c>
@@ -13732,7 +13734,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>43891</v>
       </c>
@@ -13752,7 +13754,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>43922</v>
       </c>
@@ -13772,7 +13774,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>43952</v>
       </c>
@@ -13792,7 +13794,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>43983</v>
       </c>
@@ -13812,7 +13814,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44013</v>
       </c>
@@ -13832,7 +13834,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44044</v>
       </c>
@@ -13852,7 +13854,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44075</v>
       </c>
@@ -13872,7 +13874,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>44105</v>
       </c>
@@ -13892,7 +13894,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44136</v>
       </c>
@@ -13912,7 +13914,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44166</v>
       </c>
@@ -13936,7 +13938,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="48" t="s">
         <v>74</v>
       </c>
@@ -13954,7 +13956,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44197</v>
       </c>
@@ -13974,7 +13976,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44228</v>
       </c>
@@ -13994,7 +13996,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44256</v>
       </c>
@@ -14014,7 +14016,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44287</v>
       </c>
@@ -14034,7 +14036,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44317</v>
       </c>
@@ -14054,7 +14056,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44348</v>
       </c>
@@ -14074,7 +14076,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44378</v>
       </c>
@@ -14094,7 +14096,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>44409</v>
       </c>
@@ -14114,7 +14116,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44440</v>
       </c>
@@ -14134,7 +14136,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44470</v>
       </c>
@@ -14154,7 +14156,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44501</v>
       </c>
@@ -14178,7 +14180,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>44531</v>
       </c>
@@ -14204,7 +14206,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="48" t="s">
         <v>75</v>
       </c>
@@ -14222,7 +14224,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44562</v>
       </c>
@@ -14242,7 +14244,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44593</v>
       </c>
@@ -14266,7 +14268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44621</v>
       </c>
@@ -14290,7 +14292,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44652</v>
       </c>
@@ -14314,7 +14316,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>44682</v>
       </c>
@@ -14338,7 +14340,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>44713</v>
       </c>
@@ -14362,7 +14364,7 @@
         <v>44735</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>345</v>
@@ -14382,7 +14384,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="49"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44743</v>
       </c>
@@ -14406,7 +14408,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44774</v>
       </c>
@@ -14426,7 +14428,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>44805</v>
       </c>
@@ -14450,7 +14452,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>44835</v>
       </c>
@@ -14470,7 +14472,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>44866</v>
       </c>
@@ -14496,7 +14498,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>343</v>
@@ -14516,7 +14518,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>44896</v>
       </c>
@@ -14542,7 +14544,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>342</v>
@@ -14562,7 +14564,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="48" t="s">
         <v>82</v>
       </c>
@@ -14580,7 +14582,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>44957</v>
       </c>
@@ -14606,7 +14608,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>44985</v>
       </c>
@@ -14632,7 +14634,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>46</v>
@@ -14652,7 +14654,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>45016</v>
       </c>
@@ -14676,7 +14678,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>47</v>
@@ -14698,7 +14700,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>45046</v>
       </c>
@@ -14724,7 +14726,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>45077</v>
       </c>
@@ -14744,7 +14746,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>45107</v>
       </c>
@@ -14764,7 +14766,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>45138</v>
       </c>
@@ -14784,7 +14786,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>45169</v>
       </c>
@@ -14804,7 +14806,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>45199</v>
       </c>
@@ -14824,61 +14826,67 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>45230</v>
       </c>
       <c r="B585" s="20"/>
-      <c r="C585" s="13"/>
+      <c r="C585" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D585" s="39"/>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
-      <c r="G585" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G585" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H585" s="39"/>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>45260</v>
       </c>
       <c r="B586" s="20"/>
-      <c r="C586" s="13"/>
+      <c r="C586" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D586" s="39"/>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G586" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>45291</v>
       </c>
       <c r="B587" s="20"/>
-      <c r="C587" s="13"/>
+      <c r="C587" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D587" s="39"/>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G587" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>45322</v>
       </c>
@@ -14896,7 +14904,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>45351</v>
       </c>
@@ -14914,7 +14922,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>45382</v>
       </c>
@@ -14932,7 +14940,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>45412</v>
       </c>
@@ -14950,7 +14958,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>45443</v>
       </c>
@@ -14968,7 +14976,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>45473</v>
       </c>
@@ -14986,7 +14994,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>45504</v>
       </c>
@@ -15004,7 +15012,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>45535</v>
       </c>
@@ -15022,7 +15030,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>45565</v>
       </c>
@@ -15040,7 +15048,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>45596</v>
       </c>
@@ -15058,7 +15066,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>45626</v>
       </c>
@@ -15076,7 +15084,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>45657</v>
       </c>
@@ -15094,7 +15102,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>45688</v>
       </c>
@@ -15112,7 +15120,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>45716</v>
       </c>
@@ -15130,7 +15138,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>45747</v>
       </c>
@@ -15148,7 +15156,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>45777</v>
       </c>
@@ -15166,7 +15174,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>45808</v>
       </c>
@@ -15184,7 +15192,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>45838</v>
       </c>
@@ -15202,7 +15210,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>45869</v>
       </c>
@@ -15220,7 +15228,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>45900</v>
       </c>
@@ -15238,7 +15246,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>45930</v>
       </c>
@@ -15256,7 +15264,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>45961</v>
       </c>
@@ -15274,7 +15282,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>45991</v>
       </c>
@@ -15292,7 +15300,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>46022</v>
       </c>
@@ -15310,7 +15318,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>46053</v>
       </c>
@@ -15328,7 +15336,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>46081</v>
       </c>
@@ -15346,7 +15354,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>46112</v>
       </c>
@@ -15364,7 +15372,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>46142</v>
       </c>
@@ -15382,7 +15390,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>46173</v>
       </c>
@@ -15400,7 +15408,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>46203</v>
       </c>
@@ -15418,7 +15426,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>46234</v>
       </c>
@@ -15436,7 +15444,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>46265</v>
       </c>
@@ -15454,7 +15462,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>46295</v>
       </c>
@@ -15472,7 +15480,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>46326</v>
       </c>
@@ -15490,7 +15498,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>46356</v>
       </c>
@@ -15508,7 +15516,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>46387</v>
       </c>
@@ -15526,7 +15534,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>46418</v>
       </c>
@@ -15544,7 +15552,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>46446</v>
       </c>
@@ -15562,7 +15570,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>46477</v>
       </c>
@@ -15580,7 +15588,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>46507</v>
       </c>
@@ -15598,7 +15606,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>46538</v>
       </c>
@@ -15616,7 +15624,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>46568</v>
       </c>
@@ -15634,7 +15642,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="41"/>
       <c r="B630" s="15"/>
       <c r="C630" s="42"/>
@@ -15665,10 +15673,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15691,28 +15699,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -15725,7 +15733,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15754,7 +15762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -15780,17 +15788,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15811,7 +15822,11 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>191.363</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15838,7 +15853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15864,7 +15879,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15890,7 +15905,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15916,7 +15931,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15942,7 +15957,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15968,7 +15983,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15994,7 +16009,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16020,7 +16035,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16040,7 +16055,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16060,7 +16075,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16080,7 +16095,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16101,7 +16116,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16122,7 +16137,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16143,7 +16158,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16164,7 +16179,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16185,7 +16200,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16206,7 +16221,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16227,7 +16242,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16248,7 +16263,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16269,7 +16284,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16290,7 +16305,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16311,7 +16326,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16332,7 +16347,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16353,7 +16368,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16374,7 +16389,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16395,7 +16410,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16416,7 +16431,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16437,7 +16452,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16458,7 +16473,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16479,7 +16494,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16500,7 +16515,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16509,7 +16524,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16518,7 +16533,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16527,7 +16542,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16536,7 +16551,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16545,7 +16560,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16554,7 +16569,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16563,7 +16578,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16572,7 +16587,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16581,7 +16596,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16590,7 +16605,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16599,7 +16614,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16608,7 +16623,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16617,7 +16632,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16626,7 +16641,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16635,7 +16650,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16644,7 +16659,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16653,7 +16668,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16662,7 +16677,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16671,7 +16686,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16680,7 +16695,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16689,7 +16704,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16698,7 +16713,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16707,7 +16722,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16716,7 +16731,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16725,7 +16740,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16734,7 +16749,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16743,7 +16758,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16752,7 +16767,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16761,7 +16776,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ONT/BAYHON, VIOLETA.xlsx
+++ b/REGULAR/ONT/BAYHON, VIOLETA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="353">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1080,6 +1080,18 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>BEREAVEMENT 01/05,08-12/2024</t>
+  </si>
+  <si>
+    <t>01/02-04/2024</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1528,6 +1540,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1806,7 +1821,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K630" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K632" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2135,12 +2150,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K630"/>
+  <dimension ref="A2:K632"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="3240" topLeftCell="A572" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C584" sqref="C584:C587"/>
+      <selection pane="bottomLeft" activeCell="F588" sqref="F588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,7 +2318,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>123.90500000000003</v>
+        <v>117.90500000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14887,8 +14902,8 @@
       <c r="K587" s="20"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A588" s="40">
-        <v>45322</v>
+      <c r="A588" s="48" t="s">
+        <v>349</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -14906,11 +14921,15 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B589" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B589" s="20" t="s">
+        <v>350</v>
+      </c>
       <c r="C589" s="13"/>
-      <c r="D589" s="39"/>
+      <c r="D589" s="39">
+        <v>6</v>
+      </c>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
       <c r="G589" s="13" t="str">
@@ -14920,13 +14939,15 @@
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="20"/>
+      <c r="K589" s="51" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A590" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B590" s="20"/>
+      <c r="A590" s="40"/>
+      <c r="B590" s="20" t="s">
+        <v>270</v>
+      </c>
       <c r="C590" s="13"/>
       <c r="D590" s="39"/>
       <c r="E590" s="9"/>
@@ -14938,11 +14959,13 @@
       <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="20"/>
+      <c r="K590" s="68" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -14960,7 +14983,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -14978,7 +15001,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -14996,7 +15019,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15014,7 +15037,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15032,7 +15055,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45565</v>
+        <v>45504</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15050,7 +15073,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15068,7 +15091,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45626</v>
+        <v>45565</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15086,7 +15109,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45657</v>
+        <v>45596</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15104,7 +15127,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45688</v>
+        <v>45626</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15122,7 +15145,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45716</v>
+        <v>45657</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15140,7 +15163,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45747</v>
+        <v>45688</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15158,7 +15181,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45777</v>
+        <v>45716</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15176,7 +15199,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45808</v>
+        <v>45747</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15194,7 +15217,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45838</v>
+        <v>45777</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15212,7 +15235,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15230,7 +15253,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45900</v>
+        <v>45838</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15248,7 +15271,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15266,7 +15289,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45961</v>
+        <v>45900</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15284,7 +15307,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45991</v>
+        <v>45930</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15302,7 +15325,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46022</v>
+        <v>45961</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15320,7 +15343,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46053</v>
+        <v>45991</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15338,7 +15361,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46081</v>
+        <v>46022</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15356,7 +15379,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46112</v>
+        <v>46053</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15374,7 +15397,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46142</v>
+        <v>46081</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15392,7 +15415,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46173</v>
+        <v>46112</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15410,7 +15433,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46203</v>
+        <v>46142</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15428,7 +15451,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46234</v>
+        <v>46173</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15446,7 +15469,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>46265</v>
+        <v>46203</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15464,7 +15487,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>46295</v>
+        <v>46234</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15482,7 +15505,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>46326</v>
+        <v>46265</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15500,7 +15523,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>46356</v>
+        <v>46295</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15518,7 +15541,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>46387</v>
+        <v>46326</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15536,7 +15559,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>46418</v>
+        <v>46356</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15554,7 +15577,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>46446</v>
+        <v>46387</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15572,7 +15595,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>46477</v>
+        <v>46418</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15590,7 +15613,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>46507</v>
+        <v>46446</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15608,7 +15631,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>46538</v>
+        <v>46477</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15626,7 +15649,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>46568</v>
+        <v>46507</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15643,20 +15666,56 @@
       <c r="K629" s="20"/>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" s="41"/>
-      <c r="B630" s="15"/>
-      <c r="C630" s="42"/>
-      <c r="D630" s="43"/>
+      <c r="A630" s="40">
+        <v>46538</v>
+      </c>
+      <c r="B630" s="20"/>
+      <c r="C630" s="13"/>
+      <c r="D630" s="39"/>
       <c r="E630" s="9"/>
-      <c r="F630" s="15"/>
-      <c r="G630" s="42" t="str">
+      <c r="F630" s="20"/>
+      <c r="G630" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H630" s="43"/>
+      <c r="H630" s="39"/>
       <c r="I630" s="9"/>
-      <c r="J630" s="12"/>
-      <c r="K630" s="15"/>
+      <c r="J630" s="11"/>
+      <c r="K630" s="20"/>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A631" s="40">
+        <v>46568</v>
+      </c>
+      <c r="B631" s="20"/>
+      <c r="C631" s="13"/>
+      <c r="D631" s="39"/>
+      <c r="E631" s="9"/>
+      <c r="F631" s="20"/>
+      <c r="G631" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H631" s="39"/>
+      <c r="I631" s="9"/>
+      <c r="J631" s="11"/>
+      <c r="K631" s="20"/>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A632" s="41"/>
+      <c r="B632" s="15"/>
+      <c r="C632" s="42"/>
+      <c r="D632" s="43"/>
+      <c r="E632" s="9"/>
+      <c r="F632" s="15"/>
+      <c r="G632" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H632" s="43"/>
+      <c r="I632" s="9"/>
+      <c r="J632" s="12"/>
+      <c r="K632" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15702,7 +15761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -15825,7 +15884,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>191.363</v>
+        <v>185.363</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
